--- a/Results/adult_data_RF.xlsx
+++ b/Results/adult_data_RF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitapatel/VSCode-Python_workspace/tWayFairnessTesting/Data/CompareFile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitapatel/VSCode-Python_workspace/tWayFairnessTesting/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB1F1FB-2070-AE49-B172-CC290A20CC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1754E3-C60F-3B49-97B7-25853631A767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31700" yWindow="-6120" windowWidth="27640" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adult_data_AI360_Modified_2way_" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">adult_data_AI360_Modified_2way_!$A$1:$E$65</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -670,15 +682,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -687,6 +690,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1047,7 +1059,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1057,27 +1069,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1086,13 +1098,13 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1101,11 +1113,11 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="5">
@@ -1114,13 +1126,13 @@
       <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1129,13 +1141,13 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="5">
@@ -1144,13 +1156,13 @@
       <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1159,13 +1171,13 @@
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="5">
@@ -1174,13 +1186,13 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="11">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1189,13 +1201,13 @@
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1204,11 +1216,11 @@
       <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="5">
@@ -1217,13 +1229,13 @@
       <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="11">
         <v>5</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1232,13 +1244,13 @@
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="5">
@@ -1247,13 +1259,13 @@
       <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="11">
         <v>6</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1262,13 +1274,13 @@
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1277,11 +1289,11 @@
       <c r="D15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="5">
@@ -1290,13 +1302,13 @@
       <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="11">
         <v>7</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1305,13 +1317,13 @@
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1320,11 +1332,11 @@
       <c r="D18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="5">
@@ -1333,13 +1345,13 @@
       <c r="D19" s="6">
         <v>1</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20" s="11">
         <v>8</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1348,13 +1360,13 @@
       <c r="D20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="5">
@@ -1363,13 +1375,13 @@
       <c r="D21" s="6">
         <v>1</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="A22" s="11">
         <v>9</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1378,13 +1390,13 @@
       <c r="D22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1393,11 +1405,11 @@
       <c r="D23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="5">
@@ -1406,13 +1418,13 @@
       <c r="D24" s="6">
         <v>1</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="11">
         <v>10</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1421,13 +1433,13 @@
       <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1436,11 +1448,11 @@
       <c r="D26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="5">
@@ -1449,13 +1461,13 @@
       <c r="D27" s="6">
         <v>0</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="A28" s="11">
         <v>11</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1464,13 +1476,13 @@
       <c r="D28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="5">
@@ -1479,13 +1491,13 @@
       <c r="D29" s="6">
         <v>1</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="A30" s="11">
         <v>12</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1494,13 +1506,13 @@
       <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1509,11 +1521,11 @@
       <c r="D31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="5">
@@ -1522,13 +1534,13 @@
       <c r="D32" s="6">
         <v>0</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="A33" s="11">
         <v>13</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1537,13 +1549,13 @@
       <c r="D33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="13" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="5">
@@ -1552,13 +1564,13 @@
       <c r="D34" s="6">
         <v>1</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
-        <v>14</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="11">
+        <v>14</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1567,13 +1579,13 @@
       <c r="D35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -1582,11 +1594,11 @@
       <c r="D36" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="13" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="5">
@@ -1595,13 +1607,13 @@
       <c r="D37" s="6">
         <v>1</v>
       </c>
-      <c r="E37" s="9"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <v>15</v>
-      </c>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="11">
+        <v>15</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1610,13 +1622,13 @@
       <c r="D38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="13" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="5">
@@ -1625,13 +1637,13 @@
       <c r="D39" s="6">
         <v>1</v>
       </c>
-      <c r="E39" s="9"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+      <c r="A40" s="11">
         <v>16</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1640,13 +1652,13 @@
       <c r="D40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="13" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="5">
@@ -1655,13 +1667,13 @@
       <c r="D41" s="6">
         <v>1</v>
       </c>
-      <c r="E41" s="9"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="A42" s="11">
         <v>17</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1670,13 +1682,13 @@
       <c r="D42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -1685,11 +1697,11 @@
       <c r="D43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="8"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="13" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="5">
@@ -1698,13 +1710,13 @@
       <c r="D44" s="6">
         <v>1</v>
       </c>
-      <c r="E44" s="9"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="A45" s="11">
         <v>18</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1713,13 +1725,13 @@
       <c r="D45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="13"/>
+      <c r="B46" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -1728,11 +1740,11 @@
       <c r="D46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="8"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="13" t="s">
+      <c r="A47" s="12"/>
+      <c r="B47" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="5">
@@ -1741,13 +1753,13 @@
       <c r="D47" s="6">
         <v>1</v>
       </c>
-      <c r="E47" s="9"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+      <c r="A48" s="11">
         <v>19</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1756,13 +1768,13 @@
       <c r="D48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="13" t="s">
+      <c r="A49" s="12"/>
+      <c r="B49" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="5">
@@ -1771,13 +1783,13 @@
       <c r="D49" s="6">
         <v>1</v>
       </c>
-      <c r="E49" s="9"/>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+      <c r="A50" s="11">
         <v>20</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -1786,13 +1798,13 @@
       <c r="D50" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="12" t="s">
+      <c r="A51" s="13"/>
+      <c r="B51" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -1801,11 +1813,11 @@
       <c r="D51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="13"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="13" t="s">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="5">
@@ -1814,13 +1826,13 @@
       <c r="D52" s="6">
         <v>1</v>
       </c>
-      <c r="E52" s="9"/>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
+      <c r="A53" s="11">
         <v>21</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -1829,13 +1841,13 @@
       <c r="D53" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="12" t="s">
+      <c r="A54" s="13"/>
+      <c r="B54" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -1844,11 +1856,11 @@
       <c r="D54" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="8"/>
+      <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="13" t="s">
+      <c r="A55" s="12"/>
+      <c r="B55" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C55" s="5">
@@ -1857,13 +1869,13 @@
       <c r="D55" s="6">
         <v>0</v>
       </c>
-      <c r="E55" s="9"/>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
+      <c r="A56" s="11">
         <v>22</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -1872,13 +1884,13 @@
       <c r="D56" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
-      <c r="B57" s="12" t="s">
+      <c r="A57" s="13"/>
+      <c r="B57" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -1887,11 +1899,11 @@
       <c r="D57" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="13"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="13" t="s">
+      <c r="A58" s="12"/>
+      <c r="B58" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="5">
@@ -1900,13 +1912,13 @@
       <c r="D58" s="6">
         <v>1</v>
       </c>
-      <c r="E58" s="9"/>
+      <c r="E58" s="12"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
+      <c r="A59" s="11">
         <v>23</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1915,13 +1927,13 @@
       <c r="D59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="13" t="s">
+      <c r="A60" s="12"/>
+      <c r="B60" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C60" s="5">
@@ -1930,13 +1942,13 @@
       <c r="D60" s="6">
         <v>1</v>
       </c>
-      <c r="E60" s="9"/>
+      <c r="E60" s="12"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
+      <c r="A61" s="11">
         <v>24</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1945,13 +1957,13 @@
       <c r="D61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
-      <c r="B62" s="12" t="s">
+      <c r="A62" s="13"/>
+      <c r="B62" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -1960,11 +1972,11 @@
       <c r="D62" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="8"/>
+      <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
-      <c r="B63" s="13" t="s">
+      <c r="A63" s="12"/>
+      <c r="B63" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="5">
@@ -1973,13 +1985,13 @@
       <c r="D63" s="6">
         <v>1</v>
       </c>
-      <c r="E63" s="9"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
+      <c r="A64" s="11">
         <v>25</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -1988,13 +2000,13 @@
       <c r="D64" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
-      <c r="B65" s="13" t="s">
+      <c r="A65" s="12"/>
+      <c r="B65" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="5">
@@ -2003,10 +2015,44 @@
       <c r="D65" s="6">
         <v>0</v>
       </c>
-      <c r="E65" s="9"/>
+      <c r="E65" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="A61:A63"/>
@@ -2023,40 +2069,6 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E59:E60"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
